--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 9 (0, 6, 9, 24, 32)/MDD 1 (43, 3, 19, 7, 1)/ANN_128nodes_Uniform0.05Virtual_Control(0, 6, 9, 24, 32)_MDD(43, 3, 19, 7, 1)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 9 (0, 6, 9, 24, 32)/MDD 1 (43, 3, 19, 7, 1)/ANN_128nodes_Uniform0.05Virtual_Control(0, 6, 9, 24, 32)_MDD(43, 3, 19, 7, 1)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9712861711485717</v>
+        <v>0.9999904767024664</v>
       </c>
       <c r="E2">
-        <v>0.9712861711485717</v>
+        <v>0.9999904767024664</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -467,13 +467,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.8347994791148392</v>
+        <v>0.02106879882139961</v>
       </c>
       <c r="E3">
-        <v>0.8347994791148392</v>
+        <v>0.02106879882139961</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9999999544361206</v>
+        <v>0.9997110917106176</v>
       </c>
       <c r="E4">
-        <v>0.9999999544361206</v>
+        <v>0.9997110917106176</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.999994508301337</v>
+        <v>0.9997931785426536</v>
       </c>
       <c r="E5">
-        <v>0.999994508301337</v>
+        <v>0.9997931785426536</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9999994225606138</v>
+        <v>0.9999999988129999</v>
       </c>
       <c r="E6">
-        <v>0.9999994225606138</v>
+        <v>0.9999999988129999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.999999999956978</v>
+        <v>0.9999999998503226</v>
       </c>
       <c r="E7">
-        <v>4.302203038264452E-11</v>
+        <v>1.496773816000996E-10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0005285020875535003</v>
+        <v>2.064997771185897E-05</v>
       </c>
       <c r="E8">
-        <v>0.9994714979124465</v>
+        <v>0.9999793500222881</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9954336873208155</v>
+        <v>0.9791823476382642</v>
       </c>
       <c r="E9">
-        <v>0.004566312679184503</v>
+        <v>0.02081765236173583</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9560589809560389</v>
+        <v>0.9999999999284439</v>
       </c>
       <c r="E11">
-        <v>0.04394101904396108</v>
+        <v>7.155609438314059E-11</v>
       </c>
       <c r="F11">
-        <v>5.632703304290771</v>
+        <v>5.95767879486084</v>
       </c>
       <c r="G11">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
